--- a/output/final_demo_venues_data.xlsx
+++ b/output/final_demo_venues_data.xlsx
@@ -655,7 +655,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -669,6 +669,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -691,29 +698,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1047,7 +1047,7 @@
     <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="1196.147857142857" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1080,7 +1080,7 @@
     <col min="42" max="42" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="109.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
